--- a/naslag/jaartallen.xlsx
+++ b/naslag/jaartallen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\naslag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED95EB6-52BD-4258-885F-1868A5A9DB44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C525676-84F3-4F99-A4C9-5156FC9CD539}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6638" yWindow="4583" windowWidth="14401" windowHeight="7484" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7043" yWindow="6435" windowWidth="14401" windowHeight="7485" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1" sheetId="1" r:id="rId1"/>
@@ -1533,10 +1533,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2863,10 +2859,10 @@
   <dimension ref="A1:CM18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="BM13" sqref="BM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3562,7 +3558,7 @@
       <c r="BI9" s="9"/>
       <c r="BL9" s="9"/>
       <c r="BN9" s="9"/>
-      <c r="BO9" s="10"/>
+      <c r="BO9" s="9"/>
       <c r="BQ9" s="11"/>
       <c r="BX9" s="9"/>
       <c r="BZ9" s="9"/>
